--- a/Projekt/drawing_circles/evaluation.xlsx
+++ b/Projekt/drawing_circles/evaluation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf19044_lehre_dhbw-stuttgart_de/Documents/Uni/Vorlesung/Sem03/CESP/Programme/Projekt/drawing_circles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_49EEFD3B30F2EF789B8CE788D9E5D36D34311F33" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63738940-04ED-CF42-A267-D2BC219E9607}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="27225" windowHeight="12915"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="27220" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,14 +167,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,9 +215,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +250,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +302,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,37 +494,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -489,157 +532,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1">
+        <v>24897</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9307</v>
+      </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
     </row>
@@ -650,24 +697,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projekt/drawing_circles/evaluation.xlsx
+++ b/Projekt/drawing_circles/evaluation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf19044_lehre_dhbw-stuttgart_de/Documents/Uni/Vorlesung/Sem03/CESP/Programme/Projekt/drawing_circles/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_49EEFD3B30F2EF789B8CE788D9E5D36D34311F33" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63738940-04ED-CF42-A267-D2BC219E9607}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="27220" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="27225" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -84,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,17 +161,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,9 +206,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,26 +241,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,26 +276,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,37 +451,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -532,161 +489,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
-        <v>24897</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9307</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
     </row>
@@ -697,24 +650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
